--- a/minigame33/Assets/ExcelTools/xlsx/Global.xlsx
+++ b/minigame33/Assets/ExcelTools/xlsx/Global.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{689BF3D9-7B3C-48D8-A8F1-97179CF6BA43}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{326173DF-C54E-4830-9796-FDD76888508E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>版本号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,15 +38,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>字段1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abc</t>
+    <t>调试版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDebug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,23 +376,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
       </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -398,16 +405,22 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>5.5</v>
       </c>
     </row>
   </sheetData>

--- a/minigame33/Assets/ExcelTools/xlsx/Global.xlsx
+++ b/minigame33/Assets/ExcelTools/xlsx/Global.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{326173DF-C54E-4830-9796-FDD76888508E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3F2C1C44-924F-40BD-A7F6-5A0978C55873}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,11 +46,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed</t>
+    <t>主背景旋转角速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgRoteSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,10 +379,13 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="20.06640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
@@ -420,7 +423,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>5.5</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
